--- a/data/Excel/indef2020.xlsx
+++ b/data/Excel/indef2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="171">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -113,24 +113,7 @@
     <t xml:space="preserve">低风险组病例死亡率▲</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(DDDs)▲</t>
-    </r>
+    <t xml:space="preserve">抗菌药物使用强度（DDDs）▲</t>
   </si>
   <si>
     <t xml:space="preserve">DDD</t>
@@ -234,89 +217,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">医疗收入中来自医保基金的比例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">包括门诊、 住院收入中来自医保基金的比例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">医疗服务收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">不含药品、耗材、检查检验收 入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">占医疗收入比例▲</t>
-    </r>
+    <t xml:space="preserve">医疗收入中来自医保基金的比例（包括门诊、 住院收入中来自医保基金的比例）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入（不含药品、耗材、检查检验收 入）占医疗收入比例▲</t>
   </si>
   <si>
     <t xml:space="preserve">医疗收入增幅▲</t>
@@ -457,42 +361,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">下转患者人次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">门急诊、住院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">下转患者人次数（门急诊、住院）</t>
   </si>
   <si>
     <t xml:space="preserve">人次</t>
@@ -634,51 +503,7 @@
     <t xml:space="preserve">住院收入中来自医保基金的比例</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">医疗服务收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">不含药品、耗材、检查检验收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">占 医疗收入比例▲</t>
-    </r>
+    <t xml:space="preserve">医疗服务收入（不含药品、耗材、检查检验收入）占 医疗收入比例▲</t>
   </si>
   <si>
     <t xml:space="preserve">辅助用药收入占比</t>
@@ -726,51 +551,7 @@
     <t xml:space="preserve">国家医疗机构、医师、护士电子化注册系统</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">医院接受其他医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">尤其是对口支援医院、医联体内 医院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">进修并返回原医院独立工作人数占比</t>
-    </r>
+    <t xml:space="preserve">医院接受其他医院（尤其是对口支援医院、医联体内 医院）进修并返回原医院独立工作人数占比</t>
   </si>
   <si>
     <t xml:space="preserve">人才培养</t>
@@ -929,10 +710,7 @@
     <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
   </si>
   <si>
-    <t xml:space="preserve">下转患者人次数（门急诊、住院）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ⅰ类切口手术部位感染率▲</t>
+    <t xml:space="preserve">I 类切口手术部位感染率▲</t>
   </si>
   <si>
     <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
@@ -1369,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2157,11 +1935,11 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3669,14 +3447,14 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.47"/>
@@ -3948,7 +3726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>73</v>
@@ -4000,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>136</v>
@@ -4026,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>136</v>
@@ -4182,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>136</v>
@@ -4208,7 +3986,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>22</v>
@@ -4416,10 +4194,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>23</v>
@@ -4546,7 +4324,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>136</v>
@@ -4572,7 +4350,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>136</v>
@@ -4598,7 +4376,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>136</v>
@@ -4624,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>136</v>
@@ -4650,13 +4428,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>11</v>
@@ -4676,13 +4454,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>11</v>
@@ -4702,13 +4480,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>11</v>
@@ -4757,7 +4535,7 @@
         <v>108</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>40</v>
@@ -4786,7 +4564,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>11</v>
@@ -4812,7 +4590,7 @@
         <v>136</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>11</v>
@@ -4838,7 +4616,7 @@
         <v>136</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>11</v>
@@ -4864,7 +4642,7 @@
         <v>136</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>11</v>
@@ -4890,7 +4668,7 @@
         <v>136</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>11</v>
@@ -4916,7 +4694,7 @@
         <v>136</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>11</v>
@@ -4942,7 +4720,7 @@
         <v>136</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>11</v>
@@ -5040,7 +4818,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>136</v>
@@ -5066,7 +4844,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>136</v>
@@ -5095,7 +4873,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>120</v>
@@ -5118,7 +4896,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>136</v>
@@ -5144,7 +4922,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>136</v>
@@ -5176,7 +4954,7 @@
         <v>136</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>11</v>
@@ -5199,7 +4977,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>23</v>
@@ -5248,7 +5026,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>127</v>
@@ -5274,7 +5052,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>127</v>
@@ -5300,7 +5078,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>127</v>
@@ -5427,7 +5205,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>30</v>
